--- a/Resultados/Escenario 2/objective_value.xlsx
+++ b/Resultados/Escenario 2/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>649034.5379376835</v>
+        <v>10178815.05638431</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>736826.2394655084</v>
+        <v>11616731.5797056</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>624431.2948001252</v>
+        <v>9989421.539815685</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>628676.0564288043</v>
+        <v>9246409.59556015</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>595808.4765009794</v>
+        <v>9473246.598671034</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>699530.9880267285</v>
+        <v>10349055.81531234</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>615944.6990499108</v>
+        <v>9295385.677025119</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>717203.2741315279</v>
+        <v>8964121.016028993</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>597282.1144959268</v>
+        <v>10066618.75166493</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>632472.8403299174</v>
+        <v>8663810.485670626</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>807744.0660972067</v>
+        <v>11099583.89916529</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>731765.925789919</v>
+        <v>9507970.952240463</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>619284.3258918941</v>
+        <v>9063958.403534915</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>638086.7080617875</v>
+        <v>9849994.997137005</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>765590.9484573101</v>
+        <v>11195309.11767918</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>913294.636972947</v>
+        <v>10798067.07883489</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>601364.9874251946</v>
+        <v>9114027.35626366</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>696663.87833936</v>
+        <v>11898691.20173139</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>558819.3636133504</v>
+        <v>9517042.227944318</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>787039.9599525514</v>
+        <v>11170262.80148499</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>609400.1874390545</v>
+        <v>8786074.754843175</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>535505.4484141567</v>
+        <v>9649781.907239605</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>860032.8683765725</v>
+        <v>11429159.3920315</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>577698.6979434241</v>
+        <v>9342825.14310972</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>766177.2197236663</v>
+        <v>11297722.71201024</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>611344.6940977909</v>
+        <v>9400892.370578229</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>770497.5280567199</v>
+        <v>10044822.6243764</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>659484.218764461</v>
+        <v>10150895.30880227</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>587990.6265741441</v>
+        <v>8936300.605723614</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>649886.2900309007</v>
+        <v>9105766.88662914</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>716854.0196665422</v>
+        <v>10258359.25296616</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>715935.4897910547</v>
+        <v>11916210.72014722</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>730396.8188856862</v>
+        <v>9365859.383316213</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>745731.7260987952</v>
+        <v>10311087.20193917</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>751245.9550655774</v>
+        <v>8778672.307366373</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>703923.8940715725</v>
+        <v>10166145.51483569</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>857153.1772155924</v>
+        <v>9958657.039035261</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>680311.1132945147</v>
+        <v>10523580.61282992</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>466666.7983518129</v>
+        <v>8146916.72610162</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>620642.103453718</v>
+        <v>9676829.465740792</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>786903.5923173198</v>
+        <v>10443014.88694351</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>556190.6763805267</v>
+        <v>9162520.822043691</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>736735.7535951837</v>
+        <v>11536513.9259698</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>702211.2616384384</v>
+        <v>9503820.798417533</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>565324.5935313436</v>
+        <v>9579216.323106408</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>532425.1710824295</v>
+        <v>8767700.170961954</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>773512.8584752319</v>
+        <v>11297072.2272878</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>808496.6322426704</v>
+        <v>11334231.81610093</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>731489.5914704382</v>
+        <v>11147423.67865239</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>711467.2047838313</v>
+        <v>10307674.22623655</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>576270.1324912317</v>
+        <v>8603617.240882246</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>799379.4798511037</v>
+        <v>9630573.08152568</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>862303.8224746583</v>
+        <v>11507189.15938525</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>662681.8724952753</v>
+        <v>8781378.774836818</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>829610.2048045428</v>
+        <v>10867511.78732826</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>598052.8041245984</v>
+        <v>8484483.682786841</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>668397.4293095171</v>
+        <v>10652942.18071085</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>729133.3280501545</v>
+        <v>10091082.75278334</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>796554.6026207922</v>
+        <v>11138001.95367914</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>701565.7243294553</v>
+        <v>9164412.79553874</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>475924.9160206923</v>
+        <v>8447986.854871506</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>764856.5983495184</v>
+        <v>10537209.63799747</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>944521.8113247795</v>
+        <v>11815658.25333308</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>591799.9827886464</v>
+        <v>8876713.890415203</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>754486.872786707</v>
+        <v>11127776.72945595</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>813963.5869056364</v>
+        <v>10690288.21096846</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>635525.6627069034</v>
+        <v>9789487.365760239</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>642902.5885401076</v>
+        <v>9854944.238817351</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>754108.0559125606</v>
+        <v>11957890.48347876</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>637622.8945200405</v>
+        <v>8283290.283085115</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>684494.3282079083</v>
+        <v>9412147.232780535</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>618134.9209829855</v>
+        <v>9684050.338344717</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>694363.3597440524</v>
+        <v>10344308.40218526</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>588061.5692430553</v>
+        <v>9064980.379471218</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>598849.610223064</v>
+        <v>9535022.312347783</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>514665.1602546471</v>
+        <v>7788408.31970288</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>836130.3398899364</v>
+        <v>10789666.67877487</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>531964.7796050519</v>
+        <v>9336319.427740365</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>949640.6838788697</v>
+        <v>12518537.17738266</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>655911.0492283916</v>
+        <v>10628099.75179685</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>729118.2579086404</v>
+        <v>10708517.05732359</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>682594.9354605139</v>
+        <v>10100111.05011039</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>703110.0891953431</v>
+        <v>10129195.44823202</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>815445.8792848235</v>
+        <v>11442534.74409214</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>647576.5581458766</v>
+        <v>9747975.474873127</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>872307.7556279395</v>
+        <v>10451165.59605855</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>630550.1375291367</v>
+        <v>9519760.007109385</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>755851.4169608019</v>
+        <v>11237400.46170809</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>704606.1975577495</v>
+        <v>10518677.29439092</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>608745.9279690495</v>
+        <v>10113013.87067994</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>837931.751893257</v>
+        <v>10912770.35166792</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>832586.9037300941</v>
+        <v>9392901.654818326</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>613799.3088358172</v>
+        <v>9540238.024558781</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>655951.3529302633</v>
+        <v>10196305.07639547</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>775015.3799737567</v>
+        <v>10507871.51050483</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>913120.5821429953</v>
+        <v>11599757.40889077</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>595510.101408452</v>
+        <v>10559918.81609347</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>746733.8089844252</v>
+        <v>10404677.32268873</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>547106.4419925302</v>
+        <v>8111153.9690759</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>867063.9000829712</v>
+        <v>11120517.79734919</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>630300.6072197226</v>
+        <v>9633739.649684118</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>472929.7807264968</v>
+        <v>9389207.770922475</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>701936.0886346016</v>
+        <v>11252617.16285441</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>873150.4566543753</v>
+        <v>10846779.47668258</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>624732.2807058293</v>
+        <v>9754583.990924155</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>585816.6103644364</v>
+        <v>9582342.84442322</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>881456.6182701066</v>
+        <v>10142053.75272127</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>789897.6688995842</v>
+        <v>11451052.60157135</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>631826.5425231662</v>
+        <v>10026118.07820688</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>613265.8358295889</v>
+        <v>9011242.625543183</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>796233.0604964339</v>
+        <v>12325679.17364972</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>491075.7281545281</v>
+        <v>7764388.579114169</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>554448.0851834011</v>
+        <v>8448206.120003058</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>626841.3609855522</v>
+        <v>9203805.93924842</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>814698.8908555658</v>
+        <v>10815399.50806947</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>703767.7594645198</v>
+        <v>9228641.576542463</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>711710.8512765993</v>
+        <v>10918868.77225378</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>586713.5666601702</v>
+        <v>10998047.46965441</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>607211.930688974</v>
+        <v>9972284.726671638</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>741326.0408950883</v>
+        <v>10152550.19172544</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>837811.5446929947</v>
+        <v>10605762.99379841</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>512810.9979809253</v>
+        <v>8316974.46141565</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>712338.3018834454</v>
+        <v>9775927.607509514</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>680768.8208715854</v>
+        <v>9188774.157841841</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>631505.1043416753</v>
+        <v>9699679.563017095</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>663378.9516445959</v>
+        <v>9571827.68868882</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>588356.0001865793</v>
+        <v>10166440.25240529</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>652113.1891356761</v>
+        <v>9936264.828964563</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>730324.8556550337</v>
+        <v>9734198.358129326</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>756444.1120185901</v>
+        <v>10576724.54308176</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>673237.0274867483</v>
+        <v>9127940.44823882</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>694192.2345421636</v>
+        <v>10404199.56025318</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>658029.8396137257</v>
+        <v>9680983.160369297</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>679229.0750578973</v>
+        <v>10802324.4352639</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>914682.6782983008</v>
+        <v>11358511.24629523</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>713034.758157443</v>
+        <v>10600889.5213289</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>635106.4633063388</v>
+        <v>9042431.904685445</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>762750.1873656265</v>
+        <v>11550377.80314014</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>756462.1358972118</v>
+        <v>10368776.66866731</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>659218.5268974185</v>
+        <v>10882989.19294606</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>696767.0532445934</v>
+        <v>9780299.638809286</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>771790.8766778784</v>
+        <v>10476641.31988196</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>551269.9739038484</v>
+        <v>9137368.111511793</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>737395.5566846298</v>
+        <v>10251761.95060236</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>579989.9630852166</v>
+        <v>8203300.242265628</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>711823.587932759</v>
+        <v>10142717.05160047</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>750384.1565011014</v>
+        <v>10220718.25432085</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>675251.4873605457</v>
+        <v>9253846.189889919</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>710357.8972672825</v>
+        <v>11136585.00222373</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>670775.7933946005</v>
+        <v>10574486.25306083</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>656198.7736899623</v>
+        <v>8451915.766137544</v>
       </c>
     </row>
     <row r="153">
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>688083.5284255637</v>
+        <v>10507635.62805547</v>
       </c>
     </row>
     <row r="154">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>684179.7051138092</v>
+        <v>10512480.11024659</v>
       </c>
     </row>
     <row r="155">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>581528.3280451195</v>
+        <v>8670276.113819381</v>
       </c>
     </row>
     <row r="156">
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>737059.2386339147</v>
+        <v>10636043.69420521</v>
       </c>
     </row>
     <row r="157">
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>623564.0200865394</v>
+        <v>9280582.073389584</v>
       </c>
     </row>
     <row r="158">
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>547830.8881001449</v>
+        <v>8903820.862473326</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>646931.0238926385</v>
+        <v>9299937.377399301</v>
       </c>
     </row>
     <row r="160">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>547991.4349717596</v>
+        <v>8996880.198860552</v>
       </c>
     </row>
     <row r="161">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>745774.4435063548</v>
+        <v>10307888.33295722</v>
       </c>
     </row>
     <row r="162">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>823609.235361024</v>
+        <v>10992685.95464907</v>
       </c>
     </row>
     <row r="163">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>811290.2983340377</v>
+        <v>11523751.83548886</v>
       </c>
     </row>
     <row r="164">
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>557114.4732876816</v>
+        <v>8352683.334213982</v>
       </c>
     </row>
     <row r="165">
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>708668.8949731675</v>
+        <v>10893480.94689924</v>
       </c>
     </row>
     <row r="166">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>680597.1179987433</v>
+        <v>10626727.51048267</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>544797.8511878992</v>
+        <v>7894418.604719436</v>
       </c>
     </row>
     <row r="168">
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>657061.9783566933</v>
+        <v>9133287.145218022</v>
       </c>
     </row>
     <row r="169">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>689950.6672651116</v>
+        <v>9441900.179264346</v>
       </c>
     </row>
     <row r="170">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>764276.7211290365</v>
+        <v>10410353.15865534</v>
       </c>
     </row>
     <row r="171">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>638871.5117366922</v>
+        <v>8734949.119574964</v>
       </c>
     </row>
     <row r="172">
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>671306.9574368967</v>
+        <v>9312825.127920453</v>
       </c>
     </row>
     <row r="173">
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>822871.6233911559</v>
+        <v>11084335.49605817</v>
       </c>
     </row>
     <row r="174">
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>664829.0453353841</v>
+        <v>10328786.0960131</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>675750.4150384539</v>
+        <v>10040167.24289298</v>
       </c>
     </row>
     <row r="176">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>717492.165420196</v>
+        <v>11576235.34104301</v>
       </c>
     </row>
     <row r="177">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>710357.0654396995</v>
+        <v>10062833.33400651</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>690757.840321481</v>
+        <v>10911901.42442481</v>
       </c>
     </row>
     <row r="179">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>889202.7317830829</v>
+        <v>12160745.93907062</v>
       </c>
     </row>
     <row r="180">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>581250.8013479625</v>
+        <v>9025259.182623485</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>622709.2101088262</v>
+        <v>10863459.03816348</v>
       </c>
     </row>
     <row r="182">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>855017.7769181532</v>
+        <v>11199115.0826864</v>
       </c>
     </row>
     <row r="183">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>585598.4813128366</v>
+        <v>9586492.570973754</v>
       </c>
     </row>
     <row r="184">
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>699181.5817099488</v>
+        <v>8905245.897184387</v>
       </c>
     </row>
     <row r="185">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>673466.2709242273</v>
+        <v>9447714.820204195</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>694294.1104803336</v>
+        <v>10607477.23296982</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>482879.3023615764</v>
+        <v>9313604.697557734</v>
       </c>
     </row>
     <row r="188">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>579502.0480942386</v>
+        <v>9306549.168860883</v>
       </c>
     </row>
     <row r="189">
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>645951.6323567926</v>
+        <v>10706158.71860206</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>732421.384326193</v>
+        <v>9422596.953761792</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>714032.8519418221</v>
+        <v>10132740.54894292</v>
       </c>
     </row>
     <row r="192">
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>483248.9502056423</v>
+        <v>8220416.373138241</v>
       </c>
     </row>
     <row r="193">
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>480162.0385223424</v>
+        <v>8678382.547263214</v>
       </c>
     </row>
     <row r="194">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>719888.8588952224</v>
+        <v>9700908.843745651</v>
       </c>
     </row>
     <row r="195">
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>796839.4615174901</v>
+        <v>10900611.13523268</v>
       </c>
     </row>
     <row r="196">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>688344.3129805404</v>
+        <v>10132759.87707152</v>
       </c>
     </row>
     <row r="197">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>688393.1352836662</v>
+        <v>8976080.870537376</v>
       </c>
     </row>
     <row r="198">
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>626694.3389109083</v>
+        <v>8384944.992801189</v>
       </c>
     </row>
     <row r="199">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>765934.6385097913</v>
+        <v>9184744.008554857</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>773958.6293955214</v>
+        <v>11429857.53872901</v>
       </c>
     </row>
     <row r="201">
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>712901.5051694354</v>
+        <v>9927598.067926975</v>
       </c>
     </row>
     <row r="202">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>509712.0991155712</v>
+        <v>7644733.045932456</v>
       </c>
     </row>
     <row r="203">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>611496.2949477375</v>
+        <v>10577313.44185799</v>
       </c>
     </row>
     <row r="204">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>726994.6070283641</v>
+        <v>9071612.78130636</v>
       </c>
     </row>
     <row r="205">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>606153.4156927234</v>
+        <v>11326307.97334073</v>
       </c>
     </row>
     <row r="206">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>531055.644012892</v>
+        <v>9001189.677420616</v>
       </c>
     </row>
     <row r="207">
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>515263.5944938165</v>
+        <v>8358667.396953607</v>
       </c>
     </row>
     <row r="208">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>620058.6422541444</v>
+        <v>9173616.923469065</v>
       </c>
     </row>
     <row r="209">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>796681.1208357411</v>
+        <v>10128273.36915265</v>
       </c>
     </row>
     <row r="210">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>761724.8204743373</v>
+        <v>9645071.83768215</v>
       </c>
     </row>
     <row r="211">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>639234.2468741381</v>
+        <v>8943031.975885235</v>
       </c>
     </row>
     <row r="212">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>788699.577646704</v>
+        <v>11203267.41057277</v>
       </c>
     </row>
     <row r="213">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>611069.3161308718</v>
+        <v>8994429.037778664</v>
       </c>
     </row>
     <row r="214">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>762090.5325762029</v>
+        <v>10118234.22003495</v>
       </c>
     </row>
     <row r="215">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>685349.1791696111</v>
+        <v>9530267.32015726</v>
       </c>
     </row>
     <row r="216">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>685476.850958854</v>
+        <v>10279679.02355495</v>
       </c>
     </row>
     <row r="217">
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>870492.6224537914</v>
+        <v>10977642.99872534</v>
       </c>
     </row>
     <row r="218">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>812389.3548896668</v>
+        <v>11203582.83703218</v>
       </c>
     </row>
     <row r="219">
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>850004.218893859</v>
+        <v>12143690.05213438</v>
       </c>
     </row>
     <row r="220">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>756026.7655568988</v>
+        <v>11321691.8408516</v>
       </c>
     </row>
     <row r="221">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>715668.668416223</v>
+        <v>10057630.56125719</v>
       </c>
     </row>
     <row r="222">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>821856.638424461</v>
+        <v>11645352.8638888</v>
       </c>
     </row>
     <row r="223">
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>600942.0248911183</v>
+        <v>9688894.919817392</v>
       </c>
     </row>
     <row r="224">
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>858414.6597006713</v>
+        <v>11917475.080484</v>
       </c>
     </row>
     <row r="225">
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>805486.8329800692</v>
+        <v>9952924.812556185</v>
       </c>
     </row>
     <row r="226">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>658867.9627692499</v>
+        <v>9098207.30072576</v>
       </c>
     </row>
     <row r="227">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>661561.8312353635</v>
+        <v>10788056.49187826</v>
       </c>
     </row>
     <row r="228">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>673110.1591821517</v>
+        <v>9059527.635222742</v>
       </c>
     </row>
     <row r="229">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>565726.6619666473</v>
+        <v>9426309.708934328</v>
       </c>
     </row>
     <row r="230">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>782194.0627930667</v>
+        <v>10456906.82944661</v>
       </c>
     </row>
     <row r="231">
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>696466.4312522667</v>
+        <v>10360542.16269904</v>
       </c>
     </row>
     <row r="232">
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>470042.6077280415</v>
+        <v>8727339.874918044</v>
       </c>
     </row>
     <row r="233">
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>730192.6120807151</v>
+        <v>9991790.128663141</v>
       </c>
     </row>
     <row r="234">
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>724935.2837231332</v>
+        <v>11356132.87836778</v>
       </c>
     </row>
     <row r="235">
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>622965.7233632259</v>
+        <v>8532385.690423453</v>
       </c>
     </row>
     <row r="236">
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>632740.8066528391</v>
+        <v>10651047.90975374</v>
       </c>
     </row>
     <row r="237">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>806625.3418508752</v>
+        <v>10782835.67282054</v>
       </c>
     </row>
     <row r="238">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>611169.6740602428</v>
+        <v>9670813.533340616</v>
       </c>
     </row>
     <row r="239">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>834754.7628455611</v>
+        <v>12235055.29494453</v>
       </c>
     </row>
     <row r="240">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>668629.8674326317</v>
+        <v>8806799.373328676</v>
       </c>
     </row>
     <row r="241">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>737056.0016230999</v>
+        <v>10746088.76838632</v>
       </c>
     </row>
     <row r="242">
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>744536.9060572797</v>
+        <v>9537579.446585828</v>
       </c>
     </row>
     <row r="243">
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>657032.5242459228</v>
+        <v>9200693.090606727</v>
       </c>
     </row>
     <row r="244">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>626348.6555102272</v>
+        <v>9950993.672778495</v>
       </c>
     </row>
     <row r="245">
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>538545.8037388946</v>
+        <v>8747121.312221088</v>
       </c>
     </row>
     <row r="246">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>457265.2661714759</v>
+        <v>8163897.425625696</v>
       </c>
     </row>
     <row r="247">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>786321.7878456833</v>
+        <v>10398792.52330917</v>
       </c>
     </row>
     <row r="248">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>791035.2125764986</v>
+        <v>11027426.36208413</v>
       </c>
     </row>
     <row r="249">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>703642.4851652997</v>
+        <v>10727591.13937951</v>
       </c>
     </row>
     <row r="250">
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>822020.9756457494</v>
+        <v>11320117.89472441</v>
       </c>
     </row>
     <row r="251">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>457480.2187814876</v>
+        <v>9477149.917596411</v>
       </c>
     </row>
   </sheetData>
